--- a/Data/monthly_temperature.xlsx
+++ b/Data/monthly_temperature.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AEDCC98-CE8C-CD49-93BE-327D3EBB1BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B532E25-4E5B-A740-B71A-2D2CA0DEA212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="24660" windowHeight="15740" xr2:uid="{1A38F072-50A9-DB4F-A1EB-26BC274D9C63}"/>
+    <workbookView xWindow="15460" yWindow="2300" windowWidth="14780" windowHeight="15740" xr2:uid="{1A38F072-50A9-DB4F-A1EB-26BC274D9C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$134</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$134</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +42,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>AvgTemp</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>MA2</t>
+  </si>
+  <si>
+    <t>MA6</t>
+  </si>
+  <si>
+    <t>MA12</t>
   </si>
 </sst>
 </file>
@@ -79,7 +97,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,10 +115,2484 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-279B-4C4B-B55C-B6F9F1F37D13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MA2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-279B-4C4B-B55C-B6F9F1F37D13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MA6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>53.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>54.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>67.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>52.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>39.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>58.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>65.833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>59.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>52.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>51.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>68.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>68.833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>59.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>50.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>57.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>66.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>70.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>71.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>62.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>54.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>46.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>50.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>59.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>70.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>70.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>59.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>52.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-279B-4C4B-B55C-B6F9F1F37D13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MA12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.416666666666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58.416666666666664</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57.416666666666664</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.416666666666664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>58.416666666666664</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>58.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>58.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>57.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>55.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>55.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>56.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>56.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>56.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>55.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>56.083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>55.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>55.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>55.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>54.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>55.416666666666664</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>56.083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>55.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>55.083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>55.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>55.583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>54.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>54.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>55.083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>55.083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>55.083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>54.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>55.25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>55.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>55.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>56.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>56.583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>56.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>56.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>56.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>56.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>55.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>55.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>56.083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>56.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>56.583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>56.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>56.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>56.583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>56.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-279B-4C4B-B55C-B6F9F1F37D13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1847710112"/>
+        <c:axId val="1857403056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1847710112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1857403056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1857403056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1847710112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F036474-2883-A396-11B5-6AEF9D13734F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +2630,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +2736,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,7 +2878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,13 +2889,16 @@
   <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -412,7 +2907,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45150</v>
+        <v>41122</v>
       </c>
       <c r="B2">
         <v>78</v>
@@ -420,7 +2915,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45181</v>
+        <v>41153</v>
       </c>
       <c r="B3">
         <v>68</v>
@@ -428,7 +2923,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45211</v>
+        <v>41183</v>
       </c>
       <c r="B4">
         <v>57</v>
@@ -436,7 +2931,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45242</v>
+        <v>41214</v>
       </c>
       <c r="B5">
         <v>46</v>
@@ -444,7 +2939,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45272</v>
+        <v>41244</v>
       </c>
       <c r="B6">
         <v>42</v>
@@ -452,7 +2947,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44939</v>
+        <v>41275</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -460,7 +2955,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44970</v>
+        <v>41306</v>
       </c>
       <c r="B8">
         <v>37</v>
@@ -468,7 +2963,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44998</v>
+        <v>41334</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -476,7 +2971,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45029</v>
+        <v>41365</v>
       </c>
       <c r="B10">
         <v>55</v>
@@ -484,7 +2979,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45059</v>
+        <v>41395</v>
       </c>
       <c r="B11">
         <v>65</v>
@@ -492,7 +2987,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45090</v>
+        <v>41426</v>
       </c>
       <c r="B12">
         <v>73</v>
@@ -500,7 +2995,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45120</v>
+        <v>41456</v>
       </c>
       <c r="B13">
         <v>75</v>
@@ -508,7 +3003,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45151</v>
+        <v>41487</v>
       </c>
       <c r="B14">
         <v>75</v>
@@ -516,7 +3011,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45182</v>
+        <v>41518</v>
       </c>
       <c r="B15">
         <v>71</v>
@@ -524,7 +3019,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45212</v>
+        <v>41548</v>
       </c>
       <c r="B16">
         <v>57</v>
@@ -532,7 +3027,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45243</v>
+        <v>41579</v>
       </c>
       <c r="B17">
         <v>42</v>
@@ -540,7 +3035,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45273</v>
+        <v>41609</v>
       </c>
       <c r="B18">
         <v>31</v>
@@ -548,7 +3043,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44940</v>
+        <v>41640</v>
       </c>
       <c r="B19">
         <v>26</v>
@@ -556,7 +3051,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44971</v>
+        <v>41671</v>
       </c>
       <c r="B20">
         <v>26</v>
@@ -564,7 +3059,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44999</v>
+        <v>41699</v>
       </c>
       <c r="B21">
         <v>40</v>
@@ -572,7 +3067,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45030</v>
+        <v>41730</v>
       </c>
       <c r="B22">
         <v>56</v>
@@ -580,7 +3075,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45060</v>
+        <v>41760</v>
       </c>
       <c r="B23">
         <v>67</v>
@@ -588,7 +3083,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45091</v>
+        <v>41791</v>
       </c>
       <c r="B24">
         <v>75</v>
@@ -596,7 +3091,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45121</v>
+        <v>41821</v>
       </c>
       <c r="B25">
         <v>73</v>
@@ -604,7 +3099,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45152</v>
+        <v>41852</v>
       </c>
       <c r="B26">
         <v>76</v>
@@ -612,7 +3107,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45183</v>
+        <v>41883</v>
       </c>
       <c r="B27">
         <v>66</v>
@@ -620,7 +3115,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45213</v>
+        <v>41913</v>
       </c>
       <c r="B28">
         <v>57</v>
@@ -628,7 +3123,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45244</v>
+        <v>41944</v>
       </c>
       <c r="B29">
         <v>39</v>
@@ -636,7 +3131,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45274</v>
+        <v>41974</v>
       </c>
       <c r="B30">
         <v>37</v>
@@ -644,7 +3139,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44941</v>
+        <v>42005</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -652,7 +3147,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44972</v>
+        <v>42036</v>
       </c>
       <c r="B32">
         <v>26</v>
@@ -660,7 +3155,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45000</v>
+        <v>42064</v>
       </c>
       <c r="B33">
         <v>44</v>
@@ -668,7 +3163,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>45031</v>
+        <v>42095</v>
       </c>
       <c r="B34">
         <v>59</v>
@@ -676,7 +3171,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45061</v>
+        <v>42125</v>
       </c>
       <c r="B35">
         <v>68</v>
@@ -684,7 +3179,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>45092</v>
+        <v>42156</v>
       </c>
       <c r="B36">
         <v>76</v>
@@ -692,7 +3187,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45122</v>
+        <v>42186</v>
       </c>
       <c r="B37">
         <v>78</v>
@@ -700,7 +3195,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>45153</v>
+        <v>42217</v>
       </c>
       <c r="B38">
         <v>75</v>
@@ -708,7 +3203,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45184</v>
+        <v>42248</v>
       </c>
       <c r="B39">
         <v>72</v>
@@ -716,7 +3211,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45214</v>
+        <v>42278</v>
       </c>
       <c r="B40">
         <v>59</v>
@@ -724,7 +3219,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>45245</v>
+        <v>42309</v>
       </c>
       <c r="B41">
         <v>49</v>
@@ -732,7 +3227,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45275</v>
+        <v>42339</v>
       </c>
       <c r="B42">
         <v>44</v>
@@ -740,7 +3235,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44942</v>
+        <v>42370</v>
       </c>
       <c r="B43">
         <v>32</v>
@@ -748,7 +3243,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44973</v>
+        <v>42401</v>
       </c>
       <c r="B44">
         <v>38</v>
@@ -756,7 +3251,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45001</v>
+        <v>42430</v>
       </c>
       <c r="B45">
         <v>51</v>
@@ -764,7 +3259,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45032</v>
+        <v>42461</v>
       </c>
       <c r="B46">
         <v>58</v>
@@ -772,7 +3267,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45062</v>
+        <v>42491</v>
       </c>
       <c r="B47">
         <v>63</v>
@@ -780,7 +3275,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45093</v>
+        <v>42522</v>
       </c>
       <c r="B48">
         <v>77</v>
@@ -788,7 +3283,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45123</v>
+        <v>42552</v>
       </c>
       <c r="B49">
         <v>77</v>
@@ -796,7 +3291,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45154</v>
+        <v>42583</v>
       </c>
       <c r="B50">
         <v>77</v>
@@ -804,7 +3299,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45185</v>
+        <v>42614</v>
       </c>
       <c r="B51">
         <v>71</v>
@@ -812,7 +3307,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45215</v>
+        <v>42644</v>
       </c>
       <c r="B52">
         <v>62</v>
@@ -820,7 +3315,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>45246</v>
+        <v>42675</v>
       </c>
       <c r="B53">
         <v>50</v>
@@ -828,7 +3323,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>45276</v>
+        <v>42705</v>
       </c>
       <c r="B54">
         <v>33</v>
@@ -836,7 +3331,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44943</v>
+        <v>42736</v>
       </c>
       <c r="B55">
         <v>36</v>
@@ -844,7 +3339,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44974</v>
+        <v>42767</v>
       </c>
       <c r="B56">
         <v>46</v>
@@ -852,7 +3347,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45002</v>
+        <v>42795</v>
       </c>
       <c r="B57">
         <v>47</v>
@@ -860,7 +3355,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45033</v>
+        <v>42826</v>
       </c>
       <c r="B58">
         <v>60</v>
@@ -868,7 +3363,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45063</v>
+        <v>42856</v>
       </c>
       <c r="B59">
         <v>66</v>
@@ -876,7 +3371,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>45094</v>
+        <v>42887</v>
       </c>
       <c r="B60">
         <v>76</v>
@@ -884,7 +3379,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>45124</v>
+        <v>42917</v>
       </c>
       <c r="B61">
         <v>80</v>
@@ -892,7 +3387,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>45155</v>
+        <v>42948</v>
       </c>
       <c r="B62">
         <v>73</v>
@@ -900,7 +3395,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>45186</v>
+        <v>42979</v>
       </c>
       <c r="B63">
         <v>71</v>
@@ -908,7 +3403,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>45216</v>
+        <v>43009</v>
       </c>
       <c r="B64">
         <v>60</v>
@@ -916,7 +3411,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>45247</v>
+        <v>43040</v>
       </c>
       <c r="B65">
         <v>46</v>
@@ -924,7 +3419,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>45277</v>
+        <v>43070</v>
       </c>
       <c r="B66">
         <v>33</v>
@@ -932,7 +3427,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44944</v>
+        <v>43101</v>
       </c>
       <c r="B67">
         <v>29</v>
@@ -940,7 +3435,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44975</v>
+        <v>43132</v>
       </c>
       <c r="B68">
         <v>37</v>
@@ -948,7 +3443,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>45003</v>
+        <v>43160</v>
       </c>
       <c r="B69">
         <v>43</v>
@@ -956,7 +3451,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>45034</v>
+        <v>43191</v>
       </c>
       <c r="B70">
         <v>49</v>
@@ -964,7 +3459,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>45064</v>
+        <v>43221</v>
       </c>
       <c r="B71">
         <v>74</v>
@@ -972,7 +3467,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45095</v>
+        <v>43252</v>
       </c>
       <c r="B72">
         <v>79</v>
@@ -980,7 +3475,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45125</v>
+        <v>43282</v>
       </c>
       <c r="B73">
         <v>78</v>
@@ -988,7 +3483,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>43313</v>
       </c>
       <c r="B74">
         <v>77</v>
@@ -996,7 +3491,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>45187</v>
+        <v>43344</v>
       </c>
       <c r="B75">
         <v>73</v>
@@ -1004,7 +3499,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>45217</v>
+        <v>43374</v>
       </c>
       <c r="B76">
         <v>58</v>
@@ -1012,7 +3507,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>45248</v>
+        <v>43405</v>
       </c>
       <c r="B77">
         <v>38</v>
@@ -1020,7 +3515,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>45278</v>
+        <v>43435</v>
       </c>
       <c r="B78">
         <v>37</v>
@@ -1028,7 +3523,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44945</v>
+        <v>43466</v>
       </c>
       <c r="B79">
         <v>30</v>
@@ -1036,7 +3531,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44976</v>
+        <v>43497</v>
       </c>
       <c r="B80">
         <v>34</v>
@@ -1044,7 +3539,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>45004</v>
+        <v>43525</v>
       </c>
       <c r="B81">
         <v>41</v>
@@ -1052,7 +3547,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>45035</v>
+        <v>43556</v>
       </c>
       <c r="B82">
         <v>57</v>
@@ -1060,7 +3555,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>45065</v>
+        <v>43586</v>
       </c>
       <c r="B83">
         <v>66</v>
@@ -1068,7 +3563,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>45096</v>
+        <v>43617</v>
       </c>
       <c r="B84">
         <v>73</v>
@@ -1076,7 +3571,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>45126</v>
+        <v>43647</v>
       </c>
       <c r="B85">
         <v>78</v>
@@ -1084,7 +3579,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45157</v>
+        <v>43678</v>
       </c>
       <c r="B86">
         <v>75</v>
@@ -1092,7 +3587,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>45188</v>
+        <v>43709</v>
       </c>
       <c r="B87">
         <v>75</v>
@@ -1100,7 +3595,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>45218</v>
+        <v>43739</v>
       </c>
       <c r="B88">
         <v>55</v>
@@ -1108,7 +3603,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>45249</v>
+        <v>43770</v>
       </c>
       <c r="B89">
         <v>39</v>
@@ -1116,7 +3611,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>45279</v>
+        <v>43800</v>
       </c>
       <c r="B90">
         <v>37</v>
@@ -1124,7 +3619,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44946</v>
+        <v>43831</v>
       </c>
       <c r="B91">
         <v>35</v>
@@ -1132,7 +3627,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44977</v>
+        <v>43862</v>
       </c>
       <c r="B92">
         <v>35</v>
@@ -1140,7 +3635,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>45005</v>
+        <v>43891</v>
       </c>
       <c r="B93">
         <v>48</v>
@@ -1148,7 +3643,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>45036</v>
+        <v>43922</v>
       </c>
       <c r="B94">
         <v>53</v>
@@ -1156,7 +3651,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>45066</v>
+        <v>43952</v>
       </c>
       <c r="B95">
         <v>63</v>
@@ -1164,7 +3659,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>45097</v>
+        <v>43983</v>
       </c>
       <c r="B96">
         <v>76</v>
@@ -1172,7 +3667,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>45127</v>
+        <v>44013</v>
       </c>
       <c r="B97">
         <v>79</v>
@@ -1180,7 +3675,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>45158</v>
+        <v>44044</v>
       </c>
       <c r="B98">
         <v>74</v>
@@ -1188,7 +3683,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>45189</v>
+        <v>44075</v>
       </c>
       <c r="B99">
         <v>67</v>
@@ -1196,7 +3691,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>45219</v>
+        <v>44105</v>
       </c>
       <c r="B100">
         <v>54</v>
@@ -1204,7 +3699,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>45250</v>
+        <v>44136</v>
       </c>
       <c r="B101">
         <v>49</v>
@@ -1212,7 +3707,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>45280</v>
+        <v>44166</v>
       </c>
       <c r="B102">
         <v>36</v>
@@ -1220,7 +3715,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>44947</v>
+        <v>44197</v>
       </c>
       <c r="B103">
         <v>33</v>
@@ -1228,7 +3723,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>44978</v>
+        <v>44228</v>
       </c>
       <c r="B104">
         <v>26</v>
@@ -1236,7 +3731,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>45006</v>
+        <v>44256</v>
       </c>
       <c r="B105">
         <v>49</v>
@@ -1244,7 +3739,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45037</v>
+        <v>44287</v>
       </c>
       <c r="B106">
         <v>55</v>
@@ -1252,7 +3747,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>45067</v>
+        <v>44317</v>
       </c>
       <c r="B107">
         <v>63</v>
@@ -1260,7 +3755,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>45098</v>
+        <v>44348</v>
       </c>
       <c r="B108">
         <v>76</v>
@@ -1268,7 +3763,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>45128</v>
+        <v>44378</v>
       </c>
       <c r="B109">
         <v>77</v>
@@ -1276,7 +3771,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>45159</v>
+        <v>44409</v>
       </c>
       <c r="B110">
         <v>78</v>
@@ -1284,7 +3779,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>45190</v>
+        <v>44440</v>
       </c>
       <c r="B111">
         <v>72</v>
@@ -1292,7 +3787,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>45220</v>
+        <v>44470</v>
       </c>
       <c r="B112">
         <v>61</v>
@@ -1300,7 +3795,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>45251</v>
+        <v>44501</v>
       </c>
       <c r="B113">
         <v>44</v>
@@ -1308,7 +3803,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>45281</v>
+        <v>44531</v>
       </c>
       <c r="B114">
         <v>44</v>
@@ -1316,7 +3811,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44948</v>
+        <v>44562</v>
       </c>
       <c r="B115">
         <v>27</v>
@@ -1324,7 +3819,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44979</v>
+        <v>44593</v>
       </c>
       <c r="B116">
         <v>32</v>
@@ -1332,7 +3827,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>45007</v>
+        <v>44621</v>
       </c>
       <c r="B117">
         <v>47</v>
@@ -1340,7 +3835,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>45038</v>
+        <v>44652</v>
       </c>
       <c r="B118">
         <v>54</v>
@@ -1348,7 +3843,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>45068</v>
+        <v>44682</v>
       </c>
       <c r="B119">
         <v>67</v>
@@ -1356,7 +3851,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>45099</v>
+        <v>44713</v>
       </c>
       <c r="B120">
         <v>77</v>
@@ -1364,7 +3859,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>45129</v>
+        <v>44743</v>
       </c>
       <c r="B121">
         <v>79</v>
@@ -1372,7 +3867,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>45160</v>
+        <v>44774</v>
       </c>
       <c r="B122">
         <v>76</v>
@@ -1380,7 +3875,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>45191</v>
+        <v>44805</v>
       </c>
       <c r="B123">
         <v>68</v>
@@ -1388,7 +3883,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>45221</v>
+        <v>44835</v>
       </c>
       <c r="B124">
         <v>55</v>
@@ -1396,7 +3891,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>45252</v>
+        <v>44866</v>
       </c>
       <c r="B125">
         <v>45</v>
@@ -1404,7 +3899,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>45282</v>
+        <v>44896</v>
       </c>
       <c r="B126">
         <v>35</v>
@@ -1412,7 +3907,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>44949</v>
+        <v>44927</v>
       </c>
       <c r="B127">
         <v>38</v>
@@ -1420,7 +3915,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>44980</v>
+        <v>44958</v>
       </c>
       <c r="B128">
         <v>41</v>
@@ -1428,7 +3923,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>45008</v>
+        <v>44986</v>
       </c>
       <c r="B129">
         <v>44</v>
@@ -1436,7 +3931,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>45039</v>
+        <v>45017</v>
       </c>
       <c r="B130">
         <v>57</v>
@@ -1444,7 +3939,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>45069</v>
+        <v>45047</v>
       </c>
       <c r="B131">
         <v>67</v>
@@ -1452,7 +3947,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="B132">
         <v>74</v>
@@ -1460,7 +3955,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>45130</v>
+        <v>45108</v>
       </c>
       <c r="B133">
         <v>78</v>
@@ -1468,7 +3963,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>45161</v>
+        <v>45139</v>
       </c>
       <c r="B134">
         <v>76</v>
@@ -1477,4 +3972,2114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD6E0DB-636F-A349-B9B5-F1FC919ECC79}">
+  <dimension ref="A1:E123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>57.5</v>
+      </c>
+      <c r="E2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45151</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>63.833333333333336</v>
+      </c>
+      <c r="E3">
+        <v>55.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B4">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B5">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>69.333333333333329</v>
+      </c>
+      <c r="E5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>49.5</v>
+      </c>
+      <c r="D6">
+        <v>65.5</v>
+      </c>
+      <c r="E6">
+        <v>55.666666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>36.5</v>
+      </c>
+      <c r="D7">
+        <v>58.5</v>
+      </c>
+      <c r="E7">
+        <v>54.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>28.5</v>
+      </c>
+      <c r="D8">
+        <v>50.333333333333336</v>
+      </c>
+      <c r="E8">
+        <v>53.916666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>42.166666666666664</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>36.833333333333336</v>
+      </c>
+      <c r="E11">
+        <v>53.083333333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45060</v>
+      </c>
+      <c r="B12">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>61.5</v>
+      </c>
+      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>53.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>48.333333333333336</v>
+      </c>
+      <c r="E13">
+        <v>53.416666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B14">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>56.166666666666664</v>
+      </c>
+      <c r="E14">
+        <v>53.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B15">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>74.5</v>
+      </c>
+      <c r="D15">
+        <v>64.5</v>
+      </c>
+      <c r="E15">
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B16">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>68.833333333333329</v>
+      </c>
+      <c r="E16">
+        <v>52.916666666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45213</v>
+      </c>
+      <c r="B17">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>61.5</v>
+      </c>
+      <c r="D17">
+        <v>69</v>
+      </c>
+      <c r="E17">
+        <v>52.916666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B18">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>64.333333333333329</v>
+      </c>
+      <c r="E18">
+        <v>52.666666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>53.166666666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>53.583333333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>28.5</v>
+      </c>
+      <c r="D21">
+        <v>42.666666666666664</v>
+      </c>
+      <c r="E21">
+        <v>53.583333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B22">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>53.916666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45031</v>
+      </c>
+      <c r="B23">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>51.5</v>
+      </c>
+      <c r="D23">
+        <v>39.333333333333336</v>
+      </c>
+      <c r="E23">
+        <v>54.166666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B24">
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>63.5</v>
+      </c>
+      <c r="D24">
+        <v>44.166666666666664</v>
+      </c>
+      <c r="E24">
+        <v>54.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B25">
+        <v>76</v>
+      </c>
+      <c r="C25">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>50.666666666666664</v>
+      </c>
+      <c r="E25">
+        <v>54.333333333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45122</v>
+      </c>
+      <c r="B26">
+        <v>78</v>
+      </c>
+      <c r="C26">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>58.5</v>
+      </c>
+      <c r="E26">
+        <v>54.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B27">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>76.5</v>
+      </c>
+      <c r="D27">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E27">
+        <v>54.666666666666664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B28">
+        <v>72</v>
+      </c>
+      <c r="C28">
+        <v>73.5</v>
+      </c>
+      <c r="D28">
+        <v>71.333333333333329</v>
+      </c>
+      <c r="E28">
+        <v>55.166666666666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45214</v>
+      </c>
+      <c r="B29">
+        <v>59</v>
+      </c>
+      <c r="C29">
+        <v>65.5</v>
+      </c>
+      <c r="D29">
+        <v>71.333333333333329</v>
+      </c>
+      <c r="E29">
+        <v>55.333333333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B30">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>68.166666666666671</v>
+      </c>
+      <c r="E30">
+        <v>56.166666666666664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B31">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>46.5</v>
+      </c>
+      <c r="D31">
+        <v>62.833333333333336</v>
+      </c>
+      <c r="E31">
+        <v>56.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>55.166666666666664</v>
+      </c>
+      <c r="E32">
+        <v>56.833333333333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>49</v>
+      </c>
+      <c r="E33">
+        <v>57.833333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B34">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>44.5</v>
+      </c>
+      <c r="D34">
+        <v>45.5</v>
+      </c>
+      <c r="E34">
+        <v>58.416666666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45032</v>
+      </c>
+      <c r="B35">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>54.5</v>
+      </c>
+      <c r="D35">
+        <v>45.333333333333336</v>
+      </c>
+      <c r="E35">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B36">
+        <v>63</v>
+      </c>
+      <c r="C36">
+        <v>60.5</v>
+      </c>
+      <c r="D36">
+        <v>47.666666666666664</v>
+      </c>
+      <c r="E36">
+        <v>57.916666666666664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B37">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <v>53.166666666666664</v>
+      </c>
+      <c r="E37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45123</v>
+      </c>
+      <c r="B38">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <v>77</v>
+      </c>
+      <c r="D38">
+        <v>60.666666666666664</v>
+      </c>
+      <c r="E38">
+        <v>57.916666666666664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B39">
+        <v>77</v>
+      </c>
+      <c r="C39">
+        <v>77</v>
+      </c>
+      <c r="D39">
+        <v>67.166666666666671</v>
+      </c>
+      <c r="E39">
+        <v>58.083333333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B40">
+        <v>71</v>
+      </c>
+      <c r="C40">
+        <v>74</v>
+      </c>
+      <c r="D40">
+        <v>70.5</v>
+      </c>
+      <c r="E40">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B41">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>66.5</v>
+      </c>
+      <c r="D41">
+        <v>71.166666666666671</v>
+      </c>
+      <c r="E41">
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <v>69</v>
+      </c>
+      <c r="E42">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B43">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>41.5</v>
+      </c>
+      <c r="D43">
+        <v>61.666666666666664</v>
+      </c>
+      <c r="E43">
+        <v>57.416666666666664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B44">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <v>34.5</v>
+      </c>
+      <c r="D44">
+        <v>54.833333333333336</v>
+      </c>
+      <c r="E44">
+        <v>57.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B45">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>41</v>
+      </c>
+      <c r="D45">
+        <v>49.666666666666664</v>
+      </c>
+      <c r="E45">
+        <v>58.416666666666664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B46">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>46.5</v>
+      </c>
+      <c r="D46">
+        <v>45.666666666666664</v>
+      </c>
+      <c r="E46">
+        <v>58.083333333333336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B47">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>53.5</v>
+      </c>
+      <c r="D47">
+        <v>45.333333333333336</v>
+      </c>
+      <c r="E47">
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B48">
+        <v>66</v>
+      </c>
+      <c r="C48">
+        <v>63</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45094</v>
+      </c>
+      <c r="B49">
+        <v>76</v>
+      </c>
+      <c r="C49">
+        <v>71</v>
+      </c>
+      <c r="D49">
+        <v>55.166666666666664</v>
+      </c>
+      <c r="E49">
+        <v>58.416666666666664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B50">
+        <v>80</v>
+      </c>
+      <c r="C50">
+        <v>78</v>
+      </c>
+      <c r="D50">
+        <v>62.5</v>
+      </c>
+      <c r="E50">
+        <v>58.666666666666664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B51">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>76.5</v>
+      </c>
+      <c r="D51">
+        <v>67</v>
+      </c>
+      <c r="E51">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45186</v>
+      </c>
+      <c r="B52">
+        <v>71</v>
+      </c>
+      <c r="C52">
+        <v>72</v>
+      </c>
+      <c r="D52">
+        <v>71</v>
+      </c>
+      <c r="E52">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B53">
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>65.5</v>
+      </c>
+      <c r="D53">
+        <v>71</v>
+      </c>
+      <c r="E53">
+        <v>58.166666666666664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B54">
+        <v>46</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>67.666666666666671</v>
+      </c>
+      <c r="E54">
+        <v>57.833333333333336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45277</v>
+      </c>
+      <c r="B55">
+        <v>33</v>
+      </c>
+      <c r="C55">
+        <v>39.5</v>
+      </c>
+      <c r="D55">
+        <v>60.5</v>
+      </c>
+      <c r="E55">
+        <v>57.833333333333336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B56">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>52</v>
+      </c>
+      <c r="E56">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B57">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>46</v>
+      </c>
+      <c r="E57">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B58">
+        <v>43</v>
+      </c>
+      <c r="C58">
+        <v>40</v>
+      </c>
+      <c r="D58">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="E58">
+        <v>56.166666666666664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B59">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>46</v>
+      </c>
+      <c r="D59">
+        <v>39.5</v>
+      </c>
+      <c r="E59">
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B60">
+        <v>74</v>
+      </c>
+      <c r="C60">
+        <v>61.5</v>
+      </c>
+      <c r="D60">
+        <v>44.166666666666664</v>
+      </c>
+      <c r="E60">
+        <v>55.916666666666664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45095</v>
+      </c>
+      <c r="B61">
+        <v>79</v>
+      </c>
+      <c r="C61">
+        <v>76.5</v>
+      </c>
+      <c r="D61">
+        <v>51.833333333333336</v>
+      </c>
+      <c r="E61">
+        <v>56.166666666666664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B62">
+        <v>78</v>
+      </c>
+      <c r="C62">
+        <v>78.5</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B63">
+        <v>77</v>
+      </c>
+      <c r="C63">
+        <v>77.5</v>
+      </c>
+      <c r="D63">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E63">
+        <v>56.333333333333336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B64">
+        <v>73</v>
+      </c>
+      <c r="C64">
+        <v>75</v>
+      </c>
+      <c r="D64">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="E64">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B65">
+        <v>58</v>
+      </c>
+      <c r="C65">
+        <v>65.5</v>
+      </c>
+      <c r="D65">
+        <v>73.166666666666671</v>
+      </c>
+      <c r="E65">
+        <v>56.333333333333336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45248</v>
+      </c>
+      <c r="B66">
+        <v>38</v>
+      </c>
+      <c r="C66">
+        <v>48</v>
+      </c>
+      <c r="D66">
+        <v>67.166666666666671</v>
+      </c>
+      <c r="E66">
+        <v>55.666666666666664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B67">
+        <v>37</v>
+      </c>
+      <c r="C67">
+        <v>37.5</v>
+      </c>
+      <c r="D67">
+        <v>60.166666666666664</v>
+      </c>
+      <c r="E67">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B68">
+        <v>30</v>
+      </c>
+      <c r="C68">
+        <v>33.5</v>
+      </c>
+      <c r="D68">
+        <v>52.166666666666664</v>
+      </c>
+      <c r="E68">
+        <v>56.083333333333336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B69">
+        <v>34</v>
+      </c>
+      <c r="C69">
+        <v>32</v>
+      </c>
+      <c r="D69">
+        <v>45</v>
+      </c>
+      <c r="E69">
+        <v>55.833333333333336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>45004</v>
+      </c>
+      <c r="B70">
+        <v>41</v>
+      </c>
+      <c r="C70">
+        <v>37.5</v>
+      </c>
+      <c r="D70">
+        <v>39.666666666666664</v>
+      </c>
+      <c r="E70">
+        <v>55.666666666666664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>45035</v>
+      </c>
+      <c r="B71">
+        <v>57</v>
+      </c>
+      <c r="C71">
+        <v>49</v>
+      </c>
+      <c r="D71">
+        <v>39.5</v>
+      </c>
+      <c r="E71">
+        <v>56.333333333333336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B72">
+        <v>66</v>
+      </c>
+      <c r="C72">
+        <v>61.5</v>
+      </c>
+      <c r="D72">
+        <v>44.166666666666664</v>
+      </c>
+      <c r="E72">
+        <v>55.666666666666664</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="C73">
+        <v>69.5</v>
+      </c>
+      <c r="D73">
+        <v>50.166666666666664</v>
+      </c>
+      <c r="E73">
+        <v>55.166666666666664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B74">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>75.5</v>
+      </c>
+      <c r="D74">
+        <v>58.166666666666664</v>
+      </c>
+      <c r="E74">
+        <v>55.166666666666664</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45157</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>76.5</v>
+      </c>
+      <c r="D75">
+        <v>65</v>
+      </c>
+      <c r="E75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>70.666666666666671</v>
+      </c>
+      <c r="E76">
+        <v>55.166666666666664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B77">
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>65</v>
+      </c>
+      <c r="D77">
+        <v>70.333333333333329</v>
+      </c>
+      <c r="E77">
+        <v>54.916666666666664</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45249</v>
+      </c>
+      <c r="B78">
+        <v>39</v>
+      </c>
+      <c r="C78">
+        <v>47</v>
+      </c>
+      <c r="D78">
+        <v>65.833333333333329</v>
+      </c>
+      <c r="E78">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B79">
+        <v>37</v>
+      </c>
+      <c r="C79">
+        <v>38</v>
+      </c>
+      <c r="D79">
+        <v>59.833333333333336</v>
+      </c>
+      <c r="E79">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B80">
+        <v>35</v>
+      </c>
+      <c r="C80">
+        <v>36</v>
+      </c>
+      <c r="D80">
+        <v>52.666666666666664</v>
+      </c>
+      <c r="E80">
+        <v>55.416666666666664</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B81">
+        <v>35</v>
+      </c>
+      <c r="C81">
+        <v>35</v>
+      </c>
+      <c r="D81">
+        <v>46</v>
+      </c>
+      <c r="E81">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B82">
+        <v>48</v>
+      </c>
+      <c r="C82">
+        <v>41.5</v>
+      </c>
+      <c r="D82">
+        <v>41.5</v>
+      </c>
+      <c r="E82">
+        <v>56.083333333333336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B83">
+        <v>53</v>
+      </c>
+      <c r="C83">
+        <v>50.5</v>
+      </c>
+      <c r="D83">
+        <v>41.166666666666664</v>
+      </c>
+      <c r="E83">
+        <v>55.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B84">
+        <v>63</v>
+      </c>
+      <c r="C84">
+        <v>58</v>
+      </c>
+      <c r="D84">
+        <v>45.166666666666664</v>
+      </c>
+      <c r="E84">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B85">
+        <v>76</v>
+      </c>
+      <c r="C85">
+        <v>69.5</v>
+      </c>
+      <c r="D85">
+        <v>51.666666666666664</v>
+      </c>
+      <c r="E85">
+        <v>55.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B86">
+        <v>79</v>
+      </c>
+      <c r="C86">
+        <v>77.5</v>
+      </c>
+      <c r="D86">
+        <v>59</v>
+      </c>
+      <c r="E86">
+        <v>55.833333333333336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>45158</v>
+      </c>
+      <c r="B87">
+        <v>74</v>
+      </c>
+      <c r="C87">
+        <v>76.5</v>
+      </c>
+      <c r="D87">
+        <v>65.5</v>
+      </c>
+      <c r="E87">
+        <v>55.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B88">
+        <v>67</v>
+      </c>
+      <c r="C88">
+        <v>70.5</v>
+      </c>
+      <c r="D88">
+        <v>68.666666666666671</v>
+      </c>
+      <c r="E88">
+        <v>55.083333333333336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B89">
+        <v>54</v>
+      </c>
+      <c r="C89">
+        <v>60.5</v>
+      </c>
+      <c r="D89">
+        <v>68.833333333333329</v>
+      </c>
+      <c r="E89">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B90">
+        <v>49</v>
+      </c>
+      <c r="C90">
+        <v>51.5</v>
+      </c>
+      <c r="D90">
+        <v>66.5</v>
+      </c>
+      <c r="E90">
+        <v>55.833333333333336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B91">
+        <v>36</v>
+      </c>
+      <c r="C91">
+        <v>42.5</v>
+      </c>
+      <c r="D91">
+        <v>59.833333333333336</v>
+      </c>
+      <c r="E91">
+        <v>55.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B92">
+        <v>33</v>
+      </c>
+      <c r="C92">
+        <v>34.5</v>
+      </c>
+      <c r="D92">
+        <v>52.166666666666664</v>
+      </c>
+      <c r="E92">
+        <v>55.583333333333336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B93">
+        <v>26</v>
+      </c>
+      <c r="C93">
+        <v>29.5</v>
+      </c>
+      <c r="D93">
+        <v>44.166666666666664</v>
+      </c>
+      <c r="E93">
+        <v>54.833333333333336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B94">
+        <v>49</v>
+      </c>
+      <c r="C94">
+        <v>37.5</v>
+      </c>
+      <c r="D94">
+        <v>41.166666666666664</v>
+      </c>
+      <c r="E94">
+        <v>54.916666666666664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45037</v>
+      </c>
+      <c r="B95">
+        <v>55</v>
+      </c>
+      <c r="C95">
+        <v>52</v>
+      </c>
+      <c r="D95">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="E95">
+        <v>55.083333333333336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B96">
+        <v>63</v>
+      </c>
+      <c r="C96">
+        <v>59</v>
+      </c>
+      <c r="D96">
+        <v>43.666666666666664</v>
+      </c>
+      <c r="E96">
+        <v>55.083333333333336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B97">
+        <v>76</v>
+      </c>
+      <c r="C97">
+        <v>69.5</v>
+      </c>
+      <c r="D97">
+        <v>50.333333333333336</v>
+      </c>
+      <c r="E97">
+        <v>55.083333333333336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B98">
+        <v>77</v>
+      </c>
+      <c r="C98">
+        <v>76.5</v>
+      </c>
+      <c r="D98">
+        <v>57.666666666666664</v>
+      </c>
+      <c r="E98">
+        <v>54.916666666666664</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B99">
+        <v>78</v>
+      </c>
+      <c r="C99">
+        <v>77.5</v>
+      </c>
+      <c r="D99">
+        <v>66.333333333333329</v>
+      </c>
+      <c r="E99">
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B100">
+        <v>72</v>
+      </c>
+      <c r="C100">
+        <v>75</v>
+      </c>
+      <c r="D100">
+        <v>70.166666666666671</v>
+      </c>
+      <c r="E100">
+        <v>55.666666666666664</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45220</v>
+      </c>
+      <c r="B101">
+        <v>61</v>
+      </c>
+      <c r="C101">
+        <v>66.5</v>
+      </c>
+      <c r="D101">
+        <v>71.166666666666671</v>
+      </c>
+      <c r="E101">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B102">
+        <v>44</v>
+      </c>
+      <c r="C102">
+        <v>52.5</v>
+      </c>
+      <c r="D102">
+        <v>68</v>
+      </c>
+      <c r="E102">
+        <v>55.833333333333336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B103">
+        <v>44</v>
+      </c>
+      <c r="C103">
+        <v>44</v>
+      </c>
+      <c r="D103">
+        <v>62.666666666666664</v>
+      </c>
+      <c r="E103">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B104">
+        <v>27</v>
+      </c>
+      <c r="C104">
+        <v>35.5</v>
+      </c>
+      <c r="D104">
+        <v>54.333333333333336</v>
+      </c>
+      <c r="E104">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B105">
+        <v>32</v>
+      </c>
+      <c r="C105">
+        <v>29.5</v>
+      </c>
+      <c r="D105">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="E105">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B106">
+        <v>47</v>
+      </c>
+      <c r="C106">
+        <v>39.5</v>
+      </c>
+      <c r="D106">
+        <v>42.5</v>
+      </c>
+      <c r="E106">
+        <v>56.333333333333336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>45038</v>
+      </c>
+      <c r="B107">
+        <v>54</v>
+      </c>
+      <c r="C107">
+        <v>50.5</v>
+      </c>
+      <c r="D107">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="E107">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B108">
+        <v>67</v>
+      </c>
+      <c r="C108">
+        <v>60.5</v>
+      </c>
+      <c r="D108">
+        <v>45.166666666666664</v>
+      </c>
+      <c r="E108">
+        <v>56.583333333333336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B109">
+        <v>77</v>
+      </c>
+      <c r="C109">
+        <v>72</v>
+      </c>
+      <c r="D109">
+        <v>50.666666666666664</v>
+      </c>
+      <c r="E109">
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>45129</v>
+      </c>
+      <c r="B110">
+        <v>79</v>
+      </c>
+      <c r="C110">
+        <v>78</v>
+      </c>
+      <c r="D110">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="E110">
+        <v>56.833333333333336</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B111">
+        <v>76</v>
+      </c>
+      <c r="C111">
+        <v>77.5</v>
+      </c>
+      <c r="D111">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E111">
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B112">
+        <v>68</v>
+      </c>
+      <c r="C112">
+        <v>72</v>
+      </c>
+      <c r="D112">
+        <v>70.166666666666671</v>
+      </c>
+      <c r="E112">
+        <v>56.333333333333336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45221</v>
+      </c>
+      <c r="B113">
+        <v>55</v>
+      </c>
+      <c r="C113">
+        <v>61.5</v>
+      </c>
+      <c r="D113">
+        <v>70.333333333333329</v>
+      </c>
+      <c r="E113">
+        <v>55.833333333333336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B114">
+        <v>45</v>
+      </c>
+      <c r="C114">
+        <v>50</v>
+      </c>
+      <c r="D114">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E114">
+        <v>55.916666666666664</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B115">
+        <v>35</v>
+      </c>
+      <c r="C115">
+        <v>40</v>
+      </c>
+      <c r="D115">
+        <v>59.666666666666664</v>
+      </c>
+      <c r="E115">
+        <v>55.166666666666664</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B116">
+        <v>38</v>
+      </c>
+      <c r="C116">
+        <v>36.5</v>
+      </c>
+      <c r="D116">
+        <v>52.833333333333336</v>
+      </c>
+      <c r="E116">
+        <v>56.083333333333336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B117">
+        <v>41</v>
+      </c>
+      <c r="C117">
+        <v>39.5</v>
+      </c>
+      <c r="D117">
+        <v>47</v>
+      </c>
+      <c r="E117">
+        <v>56.833333333333336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B118">
+        <v>44</v>
+      </c>
+      <c r="C118">
+        <v>42.5</v>
+      </c>
+      <c r="D118">
+        <v>43</v>
+      </c>
+      <c r="E118">
+        <v>56.583333333333336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45039</v>
+      </c>
+      <c r="B119">
+        <v>57</v>
+      </c>
+      <c r="C119">
+        <v>50.5</v>
+      </c>
+      <c r="D119">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="E119">
+        <v>56.833333333333336</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B120">
+        <v>67</v>
+      </c>
+      <c r="C120">
+        <v>62</v>
+      </c>
+      <c r="D120">
+        <v>47</v>
+      </c>
+      <c r="E120">
+        <v>56.833333333333336</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B121">
+        <v>74</v>
+      </c>
+      <c r="C121">
+        <v>70.5</v>
+      </c>
+      <c r="D121">
+        <v>53.5</v>
+      </c>
+      <c r="E121">
+        <v>56.583333333333336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45130</v>
+      </c>
+      <c r="B122">
+        <v>78</v>
+      </c>
+      <c r="C122">
+        <v>76</v>
+      </c>
+      <c r="D122">
+        <v>60.166666666666664</v>
+      </c>
+      <c r="E122">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B123">
+        <v>76</v>
+      </c>
+      <c r="C123">
+        <v>77</v>
+      </c>
+      <c r="D123">
+        <v>66</v>
+      </c>
+      <c r="E123">
+        <v>56.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>